--- a/用例数据/股转/优先股回售/测试结果.xlsx
+++ b/用例数据/股转/优先股回售/测试结果.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="10788" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="10785" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="新股" sheetId="21" state="hidden" r:id="rId1"/>
-    <sheet name="stklist" sheetId="24" r:id="rId2"/>
+    <sheet name="stklist2022" sheetId="27" r:id="rId2"/>
     <sheet name="tradinglog2021" sheetId="25" r:id="rId3"/>
     <sheet name="exchangerights" sheetId="26" r:id="rId4"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="540">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -1043,24 +1043,12 @@
     <t>NEWPRICE</t>
   </si>
   <si>
-    <t>ETFKNOCKQTY</t>
-  </si>
-  <si>
-    <t>SELLUSEDQTY</t>
-  </si>
-  <si>
-    <t>ETFUSEDQTY</t>
-  </si>
-  <si>
     <t>NEEDSETTLEQTY</t>
   </si>
   <si>
     <t>IMPAWNQTY</t>
   </si>
   <si>
-    <t>WARRANTUSEDQTY</t>
-  </si>
-  <si>
     <t>BONDPLEDGEQTY</t>
   </si>
   <si>
@@ -1085,12 +1073,6 @@
     <t>CURRENTQTYF</t>
   </si>
   <si>
-    <t>GOINGBUYQTY</t>
-  </si>
-  <si>
-    <t>TOTALSELLQTY</t>
-  </si>
-  <si>
     <t>SELLLIMITQTY</t>
   </si>
   <si>
@@ -1178,12 +1160,6 @@
     <t>CREDITOUTSHAREQTY</t>
   </si>
   <si>
-    <t>NOUSEINITQTY</t>
-  </si>
-  <si>
-    <t>USEDUNFROZENQTY</t>
-  </si>
-  <si>
     <t>CREDITSPAREQTY</t>
   </si>
   <si>
@@ -1580,18 +1556,9 @@
     <t>优先测2</t>
   </si>
   <si>
-    <t>66546.0000</t>
-  </si>
-  <si>
     <t>-14885.720</t>
   </si>
   <si>
-    <t>332.730</t>
-  </si>
-  <si>
-    <t>166365.0000</t>
-  </si>
-  <si>
     <t>-27879.280</t>
   </si>
   <si>
@@ -1641,22 +1608,6 @@
   </si>
   <si>
     <t>000006864217</t>
-  </si>
-  <si>
-    <t>GZ11721601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GZ11721600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>820002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANQ001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>005_005_004</t>
@@ -1664,6 +1615,40 @@
   </si>
   <si>
     <t>005_004_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDTOTALNOTBUYQTY</t>
+  </si>
+  <si>
+    <t>TDTOTALNOTSELLQTY</t>
+  </si>
+  <si>
+    <t>OCCURCREDITLOCKSHAREQTY</t>
+  </si>
+  <si>
+    <t>GAPFROZENQTY</t>
+  </si>
+  <si>
+    <t>ZRTTRANSQTY</t>
+  </si>
+  <si>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2661,20 +2646,20 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2751,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -2849,7 +2834,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -2932,25 +2917,25 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +3027,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -3125,7 +3110,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>182</v>
       </c>
@@ -3208,7 +3193,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>183</v>
       </c>
@@ -3291,7 +3276,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>196</v>
       </c>
@@ -3374,7 +3359,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>191</v>
       </c>
@@ -3457,7 +3442,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>236</v>
       </c>
@@ -3540,7 +3525,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
@@ -3623,7 +3608,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>194</v>
       </c>
@@ -3706,7 +3691,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>242</v>
       </c>
@@ -3789,7 +3774,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>216</v>
       </c>
@@ -3872,13 +3857,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +3958,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -4062,7 +4047,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>182</v>
       </c>
@@ -4151,17 +4136,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -4586,7 +4571,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>155</v>
       </c>
@@ -4981,7 +4966,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>190</v>
       </c>
@@ -5376,15 +5361,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -5479,7 +5464,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>141</v>
       </c>
@@ -5568,7 +5553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>182</v>
       </c>
@@ -5657,15 +5642,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -5760,7 +5745,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>141</v>
       </c>
@@ -5849,7 +5834,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>182</v>
       </c>
@@ -5938,341 +5923,341 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="191" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="192" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="209" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="210" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="211" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="212" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="213" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="216" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="217" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="219" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="220" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="221" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="222" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="223" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="224" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="226" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="227" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="228" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="229" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="230" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="231" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="232" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="233" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="234" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="235" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="240" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="241" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="242" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="243" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="244" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="245" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="246" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="247" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="248" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="249" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="250" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="251" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="252" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="253" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="254" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="255" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="256" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="257" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="258" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="259" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="260" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="261" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="262" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="263" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="264" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="265" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="266" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="267" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="268" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="269" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="270" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="271" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="272" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="273" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="274" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="275" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="276" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="277" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="278" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="279" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="280" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="281" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="282" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="283" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="284" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="285" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="286" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="287" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="288" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="289" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="290" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="291" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="292" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="293" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="294" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="295" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="296" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="297" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="298" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="299" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="300" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="301" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="302" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="303" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="304" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="305" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="306" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="307" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="308" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="309" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="310" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="311" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="312" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="313" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="314" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="315" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="316" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="317" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="318" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="319" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="320" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="321" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="322" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="323" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="324" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="325" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="326" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="327" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="328" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="329" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="330" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="331" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="332" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="333" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="334" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="335" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="336" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="337" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="338" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="339" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="340" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="341" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="342" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="343" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="344" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="345" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="346" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="347" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="348" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="349" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="350" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="351" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="352" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="353" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="354" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="355" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="356" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="357" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="358" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="359" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="360" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="361" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="362" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="363" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="364" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="365" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="366" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="367" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="368" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="369" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="370" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="371" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="372" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="373" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="374" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="375" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="376" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="377" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="378" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="379" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="380" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="381" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="382" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="383" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="384" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="385" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="386" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="387" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="388" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="389" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="390" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="391" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="392" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="393" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6282,1018 +6267,727 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH184"/>
+  <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="82" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="86" width="2.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BK2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>385</v>
+      <c r="AA3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7305,147 +6999,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EH190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BZ3" sqref="BZ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.625" bestFit="1" customWidth="1"/>
     <col min="107" max="108" width="15" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.5" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="15" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.5" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="15" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="15" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -7454,7 +7148,7 @@
         <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>156</v>
@@ -7463,7 +7157,7 @@
         <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>282</v>
@@ -7514,43 +7208,43 @@
         <v>272</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>171</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>292</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>302</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>293</v>
@@ -7565,28 +7259,28 @@
         <v>301</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>33</v>
@@ -7598,19 +7292,19 @@
         <v>44</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>56</v>
@@ -7622,121 +7316,121 @@
         <v>48</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>281</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>317</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>303</v>
       </c>
       <c r="CL1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="CT1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="CV1" s="1" t="s">
         <v>64</v>
@@ -7748,22 +7442,22 @@
         <v>173</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="DE1" s="1" t="s">
         <v>71</v>
@@ -7775,52 +7469,52 @@
         <v>27</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>310</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="DS1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="DX1" s="1" t="s">
         <v>311</v>
@@ -7835,66 +7529,66 @@
         <v>315</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="EC1" s="1" t="s">
         <v>298</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="EF1" s="1" t="s">
         <v>313</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="EH1" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>236</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>151</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>178</v>
@@ -7906,19 +7600,19 @@
         <v>180</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>144</v>
@@ -7927,7 +7621,7 @@
         <v>144</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>145</v>
@@ -7972,25 +7666,25 @@
         <v>144</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>178</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>146</v>
@@ -8017,7 +7711,7 @@
         <v>145</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>144</v>
@@ -8029,7 +7723,7 @@
         <v>145</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>148</v>
@@ -8059,7 +7753,7 @@
         <v>141</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>145</v>
+        <v>539</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>144</v>
@@ -8077,22 +7771,22 @@
         <v>145</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>150</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>145</v>
@@ -8116,7 +7810,7 @@
         <v>148</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>144</v>
@@ -8128,7 +7822,7 @@
         <v>144</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>144</v>
@@ -8173,45 +7867,45 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>236</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>178</v>
@@ -8223,31 +7917,31 @@
         <v>180</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>144</v>
@@ -8289,25 +7983,25 @@
         <v>144</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>178</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>146</v>
@@ -8334,10 +8028,10 @@
         <v>145</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>144</v>
@@ -8346,7 +8040,7 @@
         <v>145</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>148</v>
@@ -8376,7 +8070,7 @@
         <v>141</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>145</v>
+        <v>539</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>144</v>
@@ -8394,22 +8088,22 @@
         <v>145</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>150</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>145</v>
@@ -8433,7 +8127,7 @@
         <v>148</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>144</v>
@@ -8445,7 +8139,7 @@
         <v>144</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="DO3" s="1" t="s">
         <v>144</v>
@@ -8490,45 +8184,45 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>236</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>178</v>
@@ -8540,31 +8234,31 @@
         <v>180</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>144</v>
@@ -8606,25 +8300,25 @@
         <v>144</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>178</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>146</v>
@@ -8651,10 +8345,10 @@
         <v>145</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>144</v>
@@ -8663,7 +8357,7 @@
         <v>145</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>148</v>
@@ -8693,7 +8387,7 @@
         <v>141</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>145</v>
+        <v>539</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>144</v>
@@ -8711,22 +8405,22 @@
         <v>145</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>150</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>145</v>
@@ -8750,7 +8444,7 @@
         <v>148</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>144</v>
@@ -8762,7 +8456,7 @@
         <v>144</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="DO4" s="1" t="s">
         <v>144</v>
@@ -8807,45 +8501,45 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>236</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>151</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>178</v>
@@ -8857,19 +8551,19 @@
         <v>180</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>144</v>
@@ -8878,7 +8572,7 @@
         <v>144</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>145</v>
@@ -8923,25 +8617,25 @@
         <v>144</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>178</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>151</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>146</v>
@@ -8968,7 +8662,7 @@
         <v>145</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="BJ5" s="1" t="s">
         <v>144</v>
@@ -8980,7 +8674,7 @@
         <v>145</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>148</v>
@@ -9010,7 +8704,7 @@
         <v>141</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>145</v>
+        <v>539</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>144</v>
@@ -9028,22 +8722,22 @@
         <v>145</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>148</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>150</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>145</v>
@@ -9067,7 +8761,7 @@
         <v>148</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>144</v>
@@ -9079,7 +8773,7 @@
         <v>144</v>
       </c>
       <c r="DN5" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="DO5" s="1" t="s">
         <v>144</v>
@@ -9124,193 +8818,192 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="188" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="189" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="190" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:EH1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9324,68 +9017,68 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.875" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="15" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>184</v>
       </c>
@@ -9582,45 +9275,45 @@
         <v>321</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="BO1" s="1" t="s">
         <v>187</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>145</v>
@@ -9629,19 +9322,19 @@
         <v>145</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>141</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>145</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>143</v>
@@ -9650,28 +9343,28 @@
         <v>145</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>146</v>
@@ -9683,13 +9376,13 @@
         <v>144</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AW2" s="1" t="s">
         <v>145</v>
@@ -9701,7 +9394,7 @@
         <v>145</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>144</v>
@@ -9731,57 +9424,57 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>141</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>145</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>143</v>
@@ -9790,28 +9483,28 @@
         <v>145</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>146</v>
@@ -9823,13 +9516,13 @@
         <v>144</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AW3" s="1" t="s">
         <v>145</v>
@@ -9841,7 +9534,7 @@
         <v>145</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>144</v>
@@ -9871,57 +9564,57 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>145</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>143</v>
@@ -9930,28 +9623,28 @@
         <v>145</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AL4" s="1" t="s">
         <v>146</v>
@@ -9963,13 +9656,13 @@
         <v>144</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="AW4" s="1" t="s">
         <v>145</v>
@@ -9981,7 +9674,7 @@
         <v>145</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>144</v>
@@ -10011,189 +9704,189 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="142" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="149" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="150" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="152" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="153" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="155" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="159" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="161" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="162" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="163" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="164" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="165" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="167" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="168" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="169" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="170" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="171" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="173" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="174" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="175" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="176" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="177" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="178" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="179" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="180" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="181" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="185" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="186" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="187" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <autoFilter ref="A1:BP1"/>
   <phoneticPr fontId="1" type="noConversion"/>
